--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.058809</v>
+        <v>3.336603</v>
       </c>
       <c r="H2">
-        <v>9.176427</v>
+        <v>10.009809</v>
       </c>
       <c r="I2">
-        <v>0.2545796684648062</v>
+        <v>0.2530037693731349</v>
       </c>
       <c r="J2">
-        <v>0.2545796684648062</v>
+        <v>0.253003769373135</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N2">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O2">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P2">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q2">
-        <v>311.360278129693</v>
+        <v>289.9354812434261</v>
       </c>
       <c r="R2">
-        <v>2802.242503167237</v>
+        <v>2609.419331190834</v>
       </c>
       <c r="S2">
-        <v>0.07142117422927625</v>
+        <v>0.08090545859235089</v>
       </c>
       <c r="T2">
-        <v>0.07142117422927627</v>
+        <v>0.08090545859235089</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.058809</v>
+        <v>3.336603</v>
       </c>
       <c r="H3">
-        <v>9.176427</v>
+        <v>10.009809</v>
       </c>
       <c r="I3">
-        <v>0.2545796684648062</v>
+        <v>0.2530037693731349</v>
       </c>
       <c r="J3">
-        <v>0.2545796684648062</v>
+        <v>0.253003769373135</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>163.038635</v>
       </c>
       <c r="O3">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P3">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q3">
-        <v>166.234681361905</v>
+        <v>181.331732885635</v>
       </c>
       <c r="R3">
-        <v>1496.112132257145</v>
+        <v>1631.985595970715</v>
       </c>
       <c r="S3">
-        <v>0.0381316339123754</v>
+        <v>0.0505999712195991</v>
       </c>
       <c r="T3">
-        <v>0.03813163391237541</v>
+        <v>0.05059997121959911</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.058809</v>
+        <v>3.336603</v>
       </c>
       <c r="H4">
-        <v>9.176427</v>
+        <v>10.009809</v>
       </c>
       <c r="I4">
-        <v>0.2545796684648062</v>
+        <v>0.2530037693731349</v>
       </c>
       <c r="J4">
-        <v>0.2545796684648062</v>
+        <v>0.253003769373135</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N4">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O4">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P4">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q4">
-        <v>373.952500109344</v>
+        <v>203.285928875849</v>
       </c>
       <c r="R4">
-        <v>3365.572500984096</v>
+        <v>1829.573359882641</v>
       </c>
       <c r="S4">
-        <v>0.08577885022526216</v>
+        <v>0.05672621105405155</v>
       </c>
       <c r="T4">
-        <v>0.08577885022526217</v>
+        <v>0.05672621105405155</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.058809</v>
+        <v>3.336603</v>
       </c>
       <c r="H5">
-        <v>9.176427</v>
+        <v>10.009809</v>
       </c>
       <c r="I5">
-        <v>0.2545796684648062</v>
+        <v>0.2530037693731349</v>
       </c>
       <c r="J5">
-        <v>0.2545796684648062</v>
+        <v>0.253003769373135</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N5">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O5">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P5">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q5">
-        <v>28.46132049436</v>
+        <v>26.057762790005</v>
       </c>
       <c r="R5">
-        <v>256.15188444924</v>
+        <v>234.519865110045</v>
       </c>
       <c r="S5">
-        <v>0.006528581429954419</v>
+        <v>0.00727132546653033</v>
       </c>
       <c r="T5">
-        <v>0.00652858142995442</v>
+        <v>0.007271325466530332</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.058809</v>
+        <v>3.336603</v>
       </c>
       <c r="H6">
-        <v>9.176427</v>
+        <v>10.009809</v>
       </c>
       <c r="I6">
-        <v>0.2545796684648062</v>
+        <v>0.2530037693731349</v>
       </c>
       <c r="J6">
-        <v>0.2545796684648062</v>
+        <v>0.253003769373135</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N6">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O6">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P6">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q6">
-        <v>229.8301050076981</v>
+        <v>206.061782375669</v>
       </c>
       <c r="R6">
-        <v>2068.470945069283</v>
+        <v>1854.556041381021</v>
       </c>
       <c r="S6">
-        <v>0.05271942866793792</v>
+        <v>0.05750080304060307</v>
       </c>
       <c r="T6">
-        <v>0.05271942866793792</v>
+        <v>0.05750080304060308</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>17.367157</v>
       </c>
       <c r="I7">
-        <v>0.4818133540686629</v>
+        <v>0.4389650376240971</v>
       </c>
       <c r="J7">
-        <v>0.4818133540686629</v>
+        <v>0.4389650376240971</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N7">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O7">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P7">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q7">
-        <v>589.2754155666519</v>
+        <v>503.0420682977203</v>
       </c>
       <c r="R7">
-        <v>5303.478740099867</v>
+        <v>4527.378614679482</v>
       </c>
       <c r="S7">
-        <v>0.1351705566844475</v>
+        <v>0.1403720891707681</v>
       </c>
       <c r="T7">
-        <v>0.1351705566844475</v>
+        <v>0.140372089170768</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>17.367157</v>
       </c>
       <c r="I8">
-        <v>0.4818133540686629</v>
+        <v>0.4389650376240971</v>
       </c>
       <c r="J8">
-        <v>0.4818133540686629</v>
+        <v>0.4389650376240971</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>163.038635</v>
       </c>
       <c r="O8">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P8">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q8">
         <v>314.6130634567439</v>
@@ -948,10 +948,10 @@
         <v>2831.517571110695</v>
       </c>
       <c r="S8">
-        <v>0.07216731226900709</v>
+        <v>0.08779164960752589</v>
       </c>
       <c r="T8">
-        <v>0.07216731226900709</v>
+        <v>0.08779164960752588</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>17.367157</v>
       </c>
       <c r="I9">
-        <v>0.4818133540686629</v>
+        <v>0.4389650376240971</v>
       </c>
       <c r="J9">
-        <v>0.4818133540686629</v>
+        <v>0.4389650376240971</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N9">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O9">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P9">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q9">
-        <v>707.7364403314594</v>
+        <v>352.7038970151881</v>
       </c>
       <c r="R9">
-        <v>6369.627962983135</v>
+        <v>3174.335073136693</v>
       </c>
       <c r="S9">
-        <v>0.1623436615516707</v>
+        <v>0.0984207604151936</v>
       </c>
       <c r="T9">
-        <v>0.1623436615516708</v>
+        <v>0.0984207604151936</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>17.367157</v>
       </c>
       <c r="I10">
-        <v>0.4818133540686629</v>
+        <v>0.4389650376240971</v>
       </c>
       <c r="J10">
-        <v>0.4818133540686629</v>
+        <v>0.4389650376240971</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N10">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O10">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P10">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q10">
-        <v>53.86543383964889</v>
+        <v>45.21057868764277</v>
       </c>
       <c r="R10">
-        <v>484.78890455684</v>
+        <v>406.8952081887849</v>
       </c>
       <c r="S10">
-        <v>0.01235588739291479</v>
+        <v>0.012615850210062</v>
       </c>
       <c r="T10">
-        <v>0.01235588739291479</v>
+        <v>0.012615850210062</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>17.367157</v>
       </c>
       <c r="I11">
-        <v>0.4818133540686629</v>
+        <v>0.4389650376240971</v>
       </c>
       <c r="J11">
-        <v>0.4818133540686629</v>
+        <v>0.4389650376240971</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N11">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O11">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P11">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q11">
-        <v>434.9727314340514</v>
+        <v>357.5200412133814</v>
       </c>
       <c r="R11">
-        <v>3914.754582906462</v>
+        <v>3217.680370920433</v>
       </c>
       <c r="S11">
-        <v>0.09977593617062269</v>
+        <v>0.09976468822054756</v>
       </c>
       <c r="T11">
-        <v>0.09977593617062269</v>
+        <v>0.09976468822054754</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.00608</v>
+        <v>1.029432</v>
       </c>
       <c r="H12">
-        <v>3.01824</v>
+        <v>3.088296</v>
       </c>
       <c r="I12">
-        <v>0.08373439232363715</v>
+        <v>0.07805848532574147</v>
       </c>
       <c r="J12">
-        <v>0.08373439232363716</v>
+        <v>0.07805848532574149</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N12">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O12">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P12">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q12">
-        <v>102.41023503616</v>
+        <v>89.452914334544</v>
       </c>
       <c r="R12">
-        <v>921.69211532544</v>
+        <v>805.076229010896</v>
       </c>
       <c r="S12">
-        <v>0.02349130493881451</v>
+        <v>0.02496151566417729</v>
       </c>
       <c r="T12">
-        <v>0.02349130493881451</v>
+        <v>0.02496151566417729</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.00608</v>
+        <v>1.029432</v>
       </c>
       <c r="H13">
-        <v>3.01824</v>
+        <v>3.088296</v>
       </c>
       <c r="I13">
-        <v>0.08373439232363715</v>
+        <v>0.07805848532574147</v>
       </c>
       <c r="J13">
-        <v>0.08373439232363716</v>
+        <v>0.07805848532574149</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>163.038635</v>
       </c>
       <c r="O13">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P13">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q13">
-        <v>54.6766366336</v>
+        <v>55.94572936844</v>
       </c>
       <c r="R13">
-        <v>492.0897297024</v>
+        <v>503.51156431596</v>
       </c>
       <c r="S13">
-        <v>0.01254196461647741</v>
+        <v>0.0156114555949672</v>
       </c>
       <c r="T13">
-        <v>0.01254196461647741</v>
+        <v>0.0156114555949672</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.00608</v>
+        <v>1.029432</v>
       </c>
       <c r="H14">
-        <v>3.01824</v>
+        <v>3.088296</v>
       </c>
       <c r="I14">
-        <v>0.08373439232363715</v>
+        <v>0.07805848532574147</v>
       </c>
       <c r="J14">
-        <v>0.08373439232363716</v>
+        <v>0.07805848532574149</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N14">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O14">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P14">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q14">
-        <v>122.99758870528</v>
+        <v>62.71919084605599</v>
       </c>
       <c r="R14">
-        <v>1106.97829834752</v>
+        <v>564.4727176145039</v>
       </c>
       <c r="S14">
-        <v>0.02821372162649965</v>
+        <v>0.01750156578346132</v>
       </c>
       <c r="T14">
-        <v>0.02821372162649965</v>
+        <v>0.01750156578346132</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.00608</v>
+        <v>1.029432</v>
       </c>
       <c r="H15">
-        <v>3.01824</v>
+        <v>3.088296</v>
       </c>
       <c r="I15">
-        <v>0.08373439232363715</v>
+        <v>0.07805848532574147</v>
       </c>
       <c r="J15">
-        <v>0.08373439232363716</v>
+        <v>0.07805848532574149</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N15">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O15">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P15">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q15">
-        <v>9.3612792832</v>
+        <v>8.039522491719998</v>
       </c>
       <c r="R15">
-        <v>84.25151354880001</v>
+        <v>72.35570242547998</v>
       </c>
       <c r="S15">
-        <v>0.002147330939933988</v>
+        <v>0.00224339998425382</v>
       </c>
       <c r="T15">
-        <v>0.002147330939933989</v>
+        <v>0.002243399984253821</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.00608</v>
+        <v>1.029432</v>
       </c>
       <c r="H16">
-        <v>3.01824</v>
+        <v>3.088296</v>
       </c>
       <c r="I16">
-        <v>0.08373439232363715</v>
+        <v>0.07805848532574147</v>
       </c>
       <c r="J16">
-        <v>0.08373439232363716</v>
+        <v>0.07805848532574149</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N16">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O16">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P16">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q16">
-        <v>75.59395570176002</v>
+        <v>63.57561650413599</v>
       </c>
       <c r="R16">
-        <v>680.3456013158401</v>
+        <v>572.1805485372239</v>
       </c>
       <c r="S16">
-        <v>0.01734007020191159</v>
+        <v>0.01774054829888186</v>
       </c>
       <c r="T16">
-        <v>0.01734007020191159</v>
+        <v>0.01774054829888186</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.469517</v>
+        <v>1.675087666666667</v>
       </c>
       <c r="H17">
-        <v>4.408550999999999</v>
+        <v>5.025263</v>
       </c>
       <c r="I17">
-        <v>0.1223054955910606</v>
+        <v>0.1270164576658104</v>
       </c>
       <c r="J17">
-        <v>0.1223054955910606</v>
+        <v>0.1270164576658104</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N17">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O17">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P17">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q17">
-        <v>149.584109971009</v>
+        <v>145.5574273474931</v>
       </c>
       <c r="R17">
-        <v>1346.256989739081</v>
+        <v>1310.016846127438</v>
       </c>
       <c r="S17">
-        <v>0.03431225345874271</v>
+        <v>0.04061727926698432</v>
       </c>
       <c r="T17">
-        <v>0.03431225345874272</v>
+        <v>0.04061727926698431</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.469517</v>
+        <v>1.675087666666667</v>
       </c>
       <c r="H18">
-        <v>4.408550999999999</v>
+        <v>5.025263</v>
       </c>
       <c r="I18">
-        <v>0.1223054955910606</v>
+        <v>0.1270164576658104</v>
       </c>
       <c r="J18">
-        <v>0.1223054955910606</v>
+        <v>0.1270164576658104</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>163.038635</v>
       </c>
       <c r="O18">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P18">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q18">
-        <v>79.86268192976499</v>
+        <v>91.03466889288944</v>
       </c>
       <c r="R18">
-        <v>718.7641373678848</v>
+        <v>819.3120200360049</v>
       </c>
       <c r="S18">
-        <v>0.01831924918228375</v>
+        <v>0.02540289861384131</v>
       </c>
       <c r="T18">
-        <v>0.01831924918228375</v>
+        <v>0.0254028986138413</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.469517</v>
+        <v>1.675087666666667</v>
       </c>
       <c r="H19">
-        <v>4.408550999999999</v>
+        <v>5.025263</v>
       </c>
       <c r="I19">
-        <v>0.1223054955910606</v>
+        <v>0.1270164576658104</v>
       </c>
       <c r="J19">
-        <v>0.1223054955910606</v>
+        <v>0.1270164576658104</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N19">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O19">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P19">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q19">
-        <v>179.6547467014719</v>
+        <v>102.0564185390986</v>
       </c>
       <c r="R19">
-        <v>1616.892720313248</v>
+        <v>918.507766851887</v>
       </c>
       <c r="S19">
-        <v>0.04120998684340099</v>
+        <v>0.02847847841453481</v>
       </c>
       <c r="T19">
-        <v>0.04120998684340101</v>
+        <v>0.0284784784145348</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.469517</v>
+        <v>1.675087666666667</v>
       </c>
       <c r="H20">
-        <v>4.408550999999999</v>
+        <v>5.025263</v>
       </c>
       <c r="I20">
-        <v>0.1223054955910606</v>
+        <v>0.1270164576658104</v>
       </c>
       <c r="J20">
-        <v>0.1223054955910606</v>
+        <v>0.1270164576658104</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N20">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O20">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P20">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q20">
-        <v>13.67342462668</v>
+        <v>13.08187910592389</v>
       </c>
       <c r="R20">
-        <v>123.06082164012</v>
+        <v>117.736911953315</v>
       </c>
       <c r="S20">
-        <v>0.003136469585777447</v>
+        <v>0.003650451554861097</v>
       </c>
       <c r="T20">
-        <v>0.003136469585777448</v>
+        <v>0.003650451554861097</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.469517</v>
+        <v>1.675087666666667</v>
       </c>
       <c r="H21">
-        <v>4.408550999999999</v>
+        <v>5.025263</v>
       </c>
       <c r="I21">
-        <v>0.1223054955910606</v>
+        <v>0.1270164576658104</v>
       </c>
       <c r="J21">
-        <v>0.1223054955910606</v>
+        <v>0.1270164576658104</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N21">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O21">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P21">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q21">
-        <v>110.415278110074</v>
+        <v>103.4499909725052</v>
       </c>
       <c r="R21">
-        <v>993.737502990666</v>
+        <v>931.0499187525469</v>
       </c>
       <c r="S21">
-        <v>0.0253275365208557</v>
+        <v>0.0288673498155889</v>
       </c>
       <c r="T21">
-        <v>0.02532753652085571</v>
+        <v>0.0288673498155889</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.6916763333333334</v>
+        <v>1.357782666666667</v>
       </c>
       <c r="H22">
-        <v>2.075029</v>
+        <v>4.073348</v>
       </c>
       <c r="I22">
-        <v>0.05756708955183302</v>
+        <v>0.102956250011216</v>
       </c>
       <c r="J22">
-        <v>0.05756708955183303</v>
+        <v>0.102956250011216</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N22">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O22">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P22">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q22">
-        <v>70.40666335243323</v>
+        <v>117.9850797005165</v>
       </c>
       <c r="R22">
-        <v>633.6599701718991</v>
+        <v>1061.865717304648</v>
       </c>
       <c r="S22">
-        <v>0.01615018653118484</v>
+        <v>0.03292331431561135</v>
       </c>
       <c r="T22">
-        <v>0.01615018653118484</v>
+        <v>0.03292331431561134</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.6916763333333334</v>
+        <v>1.357782666666667</v>
       </c>
       <c r="H23">
-        <v>2.075029</v>
+        <v>4.073348</v>
       </c>
       <c r="I23">
-        <v>0.05756708955183302</v>
+        <v>0.102956250011216</v>
       </c>
       <c r="J23">
-        <v>0.05756708955183303</v>
+        <v>0.102956250011216</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>163.038635</v>
       </c>
       <c r="O23">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P23">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q23">
-        <v>37.58998841615723</v>
+        <v>73.79034419999779</v>
       </c>
       <c r="R23">
-        <v>338.309895745415</v>
+        <v>664.11309779998</v>
       </c>
       <c r="S23">
-        <v>0.008622554964537116</v>
+        <v>0.02059093151202102</v>
       </c>
       <c r="T23">
-        <v>0.008622554964537118</v>
+        <v>0.02059093151202102</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.6916763333333334</v>
+        <v>1.357782666666667</v>
       </c>
       <c r="H24">
-        <v>2.075029</v>
+        <v>4.073348</v>
       </c>
       <c r="I24">
-        <v>0.05756708955183302</v>
+        <v>0.102956250011216</v>
       </c>
       <c r="J24">
-        <v>0.05756708955183303</v>
+        <v>0.102956250011216</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N24">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O24">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P24">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q24">
-        <v>84.5603939691769</v>
+        <v>82.72428892645023</v>
       </c>
       <c r="R24">
-        <v>761.0435457225921</v>
+        <v>744.5186003380521</v>
       </c>
       <c r="S24">
-        <v>0.0193968307930827</v>
+        <v>0.0230839168204507</v>
       </c>
       <c r="T24">
-        <v>0.01939683079308271</v>
+        <v>0.0230839168204507</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.6916763333333334</v>
+        <v>1.357782666666667</v>
       </c>
       <c r="H25">
-        <v>2.075029</v>
+        <v>4.073348</v>
       </c>
       <c r="I25">
-        <v>0.05756708955183302</v>
+        <v>0.102956250011216</v>
       </c>
       <c r="J25">
-        <v>0.05756708955183303</v>
+        <v>0.102956250011216</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N25">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O25">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P25">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q25">
-        <v>6.435845389942223</v>
+        <v>10.60383229541555</v>
       </c>
       <c r="R25">
-        <v>57.92260850948001</v>
+        <v>95.43449065873999</v>
       </c>
       <c r="S25">
-        <v>0.001476282195239704</v>
+        <v>0.002958961459348564</v>
       </c>
       <c r="T25">
-        <v>0.001476282195239704</v>
+        <v>0.002958961459348564</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.6916763333333334</v>
+        <v>1.357782666666667</v>
       </c>
       <c r="H26">
-        <v>2.075029</v>
+        <v>4.073348</v>
       </c>
       <c r="I26">
-        <v>0.05756708955183302</v>
+        <v>0.102956250011216</v>
       </c>
       <c r="J26">
-        <v>0.05756708955183303</v>
+        <v>0.102956250011216</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N26">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O26">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P26">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q26">
-        <v>51.97056904217936</v>
+        <v>83.85388263815689</v>
       </c>
       <c r="R26">
-        <v>467.7351213796142</v>
+        <v>754.684943743412</v>
       </c>
       <c r="S26">
-        <v>0.01192123506778865</v>
+        <v>0.02339912590378443</v>
       </c>
       <c r="T26">
-        <v>0.01192123506778865</v>
+        <v>0.02339912590378442</v>
       </c>
     </row>
   </sheetData>
